--- a/doc/Tasks.xlsx
+++ b/doc/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matan\Documents\GitHub\DE_Naya_Project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A0A9BE-B5E1-4FD9-8254-617B3ED6D801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A834674-2C35-4C8E-B71D-271EEF90A6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B6704BD1-CF3C-47F5-B11D-4B999564D7D6}"/>
   </bookViews>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Avital&amp;Matan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to do </t>
   </si>
   <si>
     <t>create redshift views:
@@ -191,6 +188,9 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>Done</t>
+  </si>
 </sst>
 </file>
 
@@ -278,7 +278,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -296,16 +296,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -587,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C883088E-7F03-47AA-8D90-639212B9F610}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -632,7 +622,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -646,10 +636,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -657,18 +647,18 @@
     </row>
     <row r="5" spans="1:4" ht="360" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -676,7 +666,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
@@ -684,10 +674,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Tasks.xlsx
+++ b/doc/Tasks.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matan\Documents\GitHub\DE_Naya_Project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A834674-2C35-4C8E-B71D-271EEF90A6E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB59DAF-C8EB-4106-9FB2-AD12DDA1B6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B6704BD1-CF3C-47F5-B11D-4B999564D7D6}"/>
+    <workbookView xWindow="20415" yWindow="0" windowWidth="8490" windowHeight="15585" activeTab="1" xr2:uid="{B6704BD1-CF3C-47F5-B11D-4B999564D7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
+    <sheet name="dashboard questions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,8 +25,34 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Matan Tsour</author>
+  </authors>
+  <commentList>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{A445B527-EA85-44D8-9C73-375907AA6205}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Require fixing in original data. 
+"Daily Budget Per Job"
+fixed with Budget_Util_n for now</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>Matan</t>
   </si>
@@ -191,12 +218,84 @@
   <si>
     <t>Done</t>
   </si>
+  <si>
+    <t>$ CPA</t>
+  </si>
+  <si>
+    <t>$ CPA Target</t>
+  </si>
+  <si>
+    <t>$ CPC</t>
+  </si>
+  <si>
+    <t>% Budget Util%</t>
+  </si>
+  <si>
+    <t>$ Spend</t>
+  </si>
+  <si>
+    <t>Vertical Bar chart - Top N Companies</t>
+  </si>
+  <si>
+    <t>$ Budget</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>Mini-table with daily  #Clicks,#apps, $ Spend</t>
+  </si>
+  <si>
+    <t>%CVR</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Country + State job ads disribution</t>
+  </si>
+  <si>
+    <t>#Applicants</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Vertical Bar chart - Top N Job Titles</t>
+  </si>
+  <si>
+    <t>#Clicks</t>
+  </si>
+  <si>
+    <t>Campaign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar chart - $ Spend bar over time with %CVR as line </t>
+  </si>
+  <si>
+    <t>#Campaigns</t>
+  </si>
+  <si>
+    <t>Date range (default 1 month)</t>
+  </si>
+  <si>
+    <t>Diagrams</t>
+  </si>
+  <si>
+    <t>KPIs</t>
+  </si>
+  <si>
+    <t>Filters</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,8 +320,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +355,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +409,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C883088E-7F03-47AA-8D90-639212B9F610}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,4 +830,121 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FA5D1C-F915-43CE-929F-DCB97BD97B97}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="A12:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="47.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>